--- a/reverseprimer-v3_16.xlsx
+++ b/reverseprimer-v3_16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_16" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R1441-CACGTACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACGTACCTTGTCTCGTGGGCTCGG</t>
+    <t>R1441-TCAACCAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACCAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R1442-ACGTCATCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTCATCGTGTCTCGTGGGCTCGG</t>
+    <t>R1442-TCTGTGAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTGAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R1443-CTCTGCTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTGCTACAGTCTCGTGGGCTCGG</t>
+    <t>R1443-GCTTCTGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTCTGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R1444-TCCACATGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCACATGCTGTCTCGTGGGCTCGG</t>
+    <t>R1444-TTCTGAAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTGAAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R1445-GTGGTAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGGTAGTGAGTCTCGTGGGCTCGG</t>
+    <t>R1445-TCACAGGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACAGGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R1446-ACCTCTGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTCTGATGGTCTCGTGGGCTCGG</t>
+    <t>R1446-GATGTCATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTCATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R1447-ACATGCAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATGCAGGTGTCTCGTGGGCTCGG</t>
+    <t>R1447-GAAGTCCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGTCCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R1448-ATGTGTCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTGTCATGGTCTCGTGGGCTCGG</t>
+    <t>R1448-TGCATCCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCATCCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R1449-CAGTTGTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTTGTGGAGTCTCGTGGGCTCGG</t>
+    <t>R1449-GATGGAACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGGAACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R1450-ACTCCAACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCCAACCAGTCTCGTGGGCTCGG</t>
+    <t>R1450-TGGACTAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGACTAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R1451-ACTCGATCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCGATCCTGTCTCGTGGGCTCGG</t>
+    <t>R1451-TAGGTTGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGTTGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R1452-ACACATCGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACATCGTTGTCTCGTGGGCTCGG</t>
+    <t>R1452-CCATCAACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCATCAACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R1453-TTCGACTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGACTCCAGTCTCGTGGGCTCGG</t>
+    <t>R1453-CTCTTCGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTTCGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R1454-ATCACGAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCACGAGCTGTCTCGTGGGCTCGG</t>
+    <t>R1454-CAACTGAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTGAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R1455-AACAGACTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGACTGGGTCTCGTGGGCTCGG</t>
+    <t>R1455-TACTCGAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCGAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R1456-TCTGTCTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTCTGAGGTCTCGTGGGCTCGG</t>
+    <t>R1456-TAGACCAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACCAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R1457-TTGACCATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACCATGCGTCTCGTGGGCTCGG</t>
+    <t>R1457-GTACGTTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACGTTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R1458-AACCACACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCACACGTGTCTCGTGGGCTCGG</t>
+    <t>R1458-CAGACTACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGACTACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R1459-AGAAGCAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCAGAGGTCTCGTGGGCTCGG</t>
+    <t>R1459-AGATGTGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGTGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R1460-ATGCAGTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCAGTCTAGTCTCGTGGGCTCGG</t>
+    <t>R1460-GAACTGTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTGTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R1461-TACGTGCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGTGCTGTGTCTCGTGGGCTCGG</t>
+    <t>R1461-TGTTCCAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTCCAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R1462-ACTCAACGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCAACGACGTCTCGTGGGCTCGG</t>
+    <t>R1462-ACAACTGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACTGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R1463-ATCTTGCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTTGCTACGTCTCGTGGGCTCGG</t>
+    <t>R1463-AGTCACCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCACCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R1464-GACTGTGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTGTGTGTGTCTCGTGGGCTCGG</t>
+    <t>R1464-GGAGCAAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAGCAAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R1465-AACTCGTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCGTGTAGTCTCGTGGGCTCGG</t>
+    <t>R1465-ACTGCTAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGCTAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R1466-GAACATGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACATGTGAGTCTCGTGGGCTCGG</t>
+    <t>R1466-CATCCATCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCCATCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R1467-CACTGTCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTGTCACAGTCTCGTGGGCTCGG</t>
+    <t>R1467-ATCAGTCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAGTCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R1468-AGTCCACTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCCACTGAGTCTCGTGGGCTCGG</t>
+    <t>R1468-AAGATCAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGATCAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R1469-TTCACTCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCACTCATGGTCTCGTGGGCTCGG</t>
+    <t>R1469-AACATGGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACATGGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R1470-TCCAACGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAACGTTGGTCTCGTGGGCTCGG</t>
+    <t>R1470-CTAGCTGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGCTGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R1471-CAAGGTGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGGTGAACGTCTCGTGGGCTCGG</t>
+    <t>R1471-TCACTCTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTCTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R1472-AGGTCTCGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTCTCGATGTCTCGTGGGCTCGG</t>
+    <t>R1472-TAGACCAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACCAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R1473-ACTCAACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCAACACTGTCTCGTGGGCTCGG</t>
+    <t>R1473-TAGACCTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACCTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R1474-CATCGAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCGAGAAGGTCTCGTGGGCTCGG</t>
+    <t>R1474-CCTTCTCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTCTCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R1475-ATCAGTGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGTGGTTGTCTCGTGGGCTCGG</t>
+    <t>R1475-ATGTCAACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTCAACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R1476-ACATCTTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCTTGGTGTCTCGTGGGCTCGG</t>
+    <t>R1476-GTAGAACCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGAACCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R1477-AACGAGTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGAGTTGAGTCTCGTGGGCTCGG</t>
+    <t>R1477-TGTGTGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGTGACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R1478-CTCAGTTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAGTTCATGTCTCGTGGGCTCGG</t>
+    <t>R1478-AACAACTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAACTGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R1479-ACGAACATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAACATGAGTCTCGTGGGCTCGG</t>
+    <t>R1479-TCTGAAGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGAAGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R1480-ATGCACTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCACTCCTGTCTCGTGGGCTCGG</t>
+    <t>R1480-TGGACTTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGACTTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R1481-AAGCTTGTCC</t>
+    <t>R1481-TTCCACAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCACAGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R1482-TACGTCTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTCTTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R1483-GTTCGAAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCGAAGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R1484-AAGCTAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTAGACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R1485-CATCTTGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCTTGCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R1486-ACAGCAAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGCAAGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R1487-CACTGACATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTGACATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R1488-GTCTGTACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTGTACAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R1489-GAACACTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACACTCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R1490-AGAAGAGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGAGTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R1491-GAAGGAGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGGAGTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R1492-GTCCACTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCCACTAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R1493-AGTCTGCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCTGCACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R1494-AGGTCCTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTCCTGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R1495-GACACAAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACACAAGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R1496-ACCATGAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCATGAGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R1497-AACTCCTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCCTAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R1498-GTCCTTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCCTTCAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R1499-CGTTCCATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTCCATGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R1500-TCCAACAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAACAACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R1501-GCTTCACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTCACGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R1502-TTGAGGTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAGGTACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R1503-CAGTCTGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTCTGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R1504-AAGAACGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAACGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R1505-TTGAACAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAACAGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R1506-GTTCGAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCGAGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R1507-GCTACTCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTACTCTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R1508-TCCAACACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAACACAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R1509-ACATGCTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGCTTCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R1510-GACTGAACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTGAACTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R1511-TTGAGTGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAGTGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R1512-GTCGTCAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCGTCAGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R1513-CACATGAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACATGAGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R1514-ATGCTGAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTGAACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R1515-CCTTGTACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTGTACATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R1516-AGCTCTCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTCTCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R1517-GCTAGTGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTAGTGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R1518-CATCCTTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCCTTGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R1519-ACCTGCTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTGCTTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R1520-GTGAACAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAACAGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R1521-AGATGACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGACACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>R1522-AGGAACAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAACAGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R1523-CTTGGTAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGGTAGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R1524-GACTCCTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTCCTTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R1525-ATCGTACCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTACCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>R1526-GGATGTAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATGTAGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>R1527-AGAGATGCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGATGCAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>R1528-TCACCTAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACCTAGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>R1529-ACAGGATCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGGATCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>R1530-AAGAGGAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGGAACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>R1531-AGTGGTGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGGTGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>R1532-ACTAGACTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTAGACTGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>R1533-TAGTGTCTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTGTCTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>R1534-AAGCTTGTCC</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATAAGCTTGTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R1482-AAGTCAGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTCAGGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R1483-GCTCTAGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCTAGTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R1484-AACAGAGCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGAGCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R1485-TACCTGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTGACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R1486-GTTGTGGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGTGGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R1487-AGGAAGGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAAGGTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R1488-CAACTCTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTCTCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R1489-TGAGCTGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGCTGATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R1490-GTGAGATGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAGATGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R1491-GTAGGACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGGACAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R1492-GGTGTACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGTACACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R1493-AACCAAGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAAGACGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R1494-CATGACAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGACAGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R1495-CACCTTCGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACCTTCGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R1496-AGCAGTGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAGTGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R1497-ACAGTTGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTTGGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R1498-TTGATGCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGATGCTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R1499-AAGTCATGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTCATGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R1500-CAGTTGGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTTGGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R1501-TAGTCCACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCCACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R1502-TAGCATCTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCATCTGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R1503-AGAAGCTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCTCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R1504-TACAGCAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGCAACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R1505-ATCTCATGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTCATGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R1506-TAGAGCACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAGCACAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R1507-AGGTAGTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTAGTTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R1508-TGTTCACTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTCACTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R1509-TGAGTAGGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTAGGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R1510-TCTCGATCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCGATCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R1511-AGAGTACAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGTACAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R1512-ATGCATCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCATCTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R1513-TGAGGAGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGGAGTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R1514-ACAGAGCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGAGCTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R1515-GAGTGCATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTGCATCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R1516-GCAAGACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAAGACTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R1517-GAGTGAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTGAGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R1518-CTACAAGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACAAGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R1519-GCAAGCAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAAGCAGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R1520-CGATCTCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATCTCCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R1521-AAGGTCGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGTCGAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>R1522-GGAGTGACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAGTGACTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R1523-GGATCACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATCACTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R1524-GTTGGAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGGAGCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>R1525-AGGACGTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGACGTAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>R1526-GTTGCTCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGCTCCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>R1527-AGAGTGAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGTGAGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>R1528-TTGAGCAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAGCAGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>R1529-CTAGAGTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGAGTGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>R1530-CACAGCACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACAGCACATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>R1531-TACACGAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACGAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>R1532-CTCTCTAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTCTAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>R1533-GAACTGTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTGTGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>R1534-CAGAACATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGAACATGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R1535-CAAGACAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGACAGGAGTCTCGTGGGCTCGG</t>
+    <t>R1535-GAACGTACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACGTACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R1536-CGATCTCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATCTCTTCGTCTCGTGGGCTCGG</t>
+    <t>R1536-TGACTGGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACTGGAACGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
